--- a/O2S_QuanLyHocVien/Templates/BC05_BaoCaoThuTien_ChiTiet.xlsx
+++ b/O2S_QuanLyHocVien/Templates/BC05_BaoCaoThuTien_ChiTiet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BCHN" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>TỔNG CỘNG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Năm sinh</t>
   </si>
@@ -47,9 +44,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>&amp;=[DATA].TENTRUNGTAM</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].DIACHITRUNGTAM</t>
   </si>
   <si>
@@ -114,20 +108,34 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GhiChu</t>
+  </si>
+  <si>
+    <t>Người Lập Biểu</t>
+  </si>
+  <si>
+    <t>Kế Toán</t>
+  </si>
+  <si>
+    <t>Giám Đốc Trung Tâm</t>
+  </si>
+  <si>
+    <t>Thủ Quỹ</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="hh:mm\ dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -139,65 +147,55 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="24"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,24 +204,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,94 +238,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,174 +659,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="6" customWidth="1"/>
+    <col min="8" max="8" width="27" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="D5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>0</v>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="31">
         <f>SUM(D6:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="10" t="s">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="I9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="11">
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
